--- a/image/careplan.xlsx
+++ b/image/careplan.xlsx
@@ -1554,45 +1554,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.75390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="100.8984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="101.6953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="152.92578125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.94921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.75390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="153.9765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.01953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="52.40234375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="168.91796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="143.734375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="52.9296875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="165.94921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="139.48046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/careplan.xlsx
+++ b/image/careplan.xlsx
@@ -467,7 +467,7 @@
     <t>CarePlan.status</t>
   </si>
   <si>
-    <t>draft | active | suspended | completed | entered-in-error | cancelled | unknown</t>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
   </si>
   <si>
     <t>Indicates whether the plan is currently being acted upon, represents future intentions or is now a historical record.</t>
@@ -853,10 +853,10 @@
 </t>
   </si>
   <si>
-    <t>Action to occur as part of plan</t>
-  </si>
-  <si>
-    <t>Identifies a planned action to occur as part of the plan.  For example, a medication to be used, lab tests to perform, self-monitoring, education, etc.</t>
+    <t>Action to occur or has occurred as part of plan</t>
+  </si>
+  <si>
+    <t>Identifies an action that has occurred or is a planned action to occur as part of the plan. For example, a medication to be used, lab tests to perform, self-monitoring that has occurred, education etc.</t>
   </si>
   <si>
     <t>Allows systems to prompt for performance of planned activities, and validate plans against best practice.</t>
@@ -1036,7 +1036,7 @@
     <t>CarePlan.activity.detail.kind</t>
   </si>
   <si>
-    <t>Kind of resource</t>
+    <t>Appointment | CommunicationRequest | DeviceRequest | MedicationRequest | NutritionOrder | Task | ServiceRequest | VisionPrescription</t>
   </si>
   <si>
     <t>A description of the kind of resource the in-line definition of a care plan activity is representing.  The CarePlan.activity.detail is an in-line definition when a resource is not referenced using CarePlan.activity.reference.  For example, a MedicationRequest, a ServiceRequest, or a CommunicationRequest.</t>
@@ -1564,7 +1564,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="101.6953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="126.48046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/image/careplan.xlsx
+++ b/image/careplan.xlsx
@@ -467,7 +467,7 @@
     <t>CarePlan.status</t>
   </si>
   <si>
-    <t>draft | active | suspended | completed | entered-in-error | cancelled | unknown</t>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
   </si>
   <si>
     <t>Indicates whether the plan is currently being acted upon, represents future intentions or is now a historical record.</t>
@@ -853,10 +853,10 @@
 </t>
   </si>
   <si>
-    <t>Action to occur as part of plan</t>
-  </si>
-  <si>
-    <t>Identifies a planned action to occur as part of the plan.  For example, a medication to be used, lab tests to perform, self-monitoring, education, etc.</t>
+    <t>Action to occur or has occurred as part of plan</t>
+  </si>
+  <si>
+    <t>Identifies an action that has occurred or is a planned action to occur as part of the plan. For example, a medication to be used, lab tests to perform, self-monitoring that has occurred, education etc.</t>
   </si>
   <si>
     <t>Allows systems to prompt for performance of planned activities, and validate plans against best practice.</t>
@@ -1036,7 +1036,7 @@
     <t>CarePlan.activity.detail.kind</t>
   </si>
   <si>
-    <t>Kind of resource</t>
+    <t>Appointment | CommunicationRequest | DeviceRequest | MedicationRequest | NutritionOrder | Task | ServiceRequest | VisionPrescription</t>
   </si>
   <si>
     <t>A description of the kind of resource the in-line definition of a care plan activity is representing.  The CarePlan.activity.detail is an in-line definition when a resource is not referenced using CarePlan.activity.reference.  For example, a MedicationRequest, a ServiceRequest, or a CommunicationRequest.</t>
@@ -1554,45 +1554,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.75390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="100.8984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="126.48046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="152.92578125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.94921875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.75390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="153.9765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.01953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="52.40234375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="168.91796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="143.734375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="52.9296875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="165.94921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="139.48046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/careplan.xlsx
+++ b/image/careplan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="450">
   <si>
     <t>Path</t>
   </si>
@@ -172,7 +172,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -557,10 +557,6 @@
     <t>CarePlan.title</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Human-friendly name for the care plan</t>
   </si>
   <si>
@@ -771,6 +767,12 @@
     <t>The element can identify risks addressed by the plan as well as concerns.  Also scopes plans - multiple plans may exist addressing different concerns.</t>
   </si>
   <si>
+    <t>Codes that describe the health issues this plan addresses.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
+  </si>
+  <si>
     <t>Request.reasonCode</t>
   </si>
   <si>
@@ -1118,9 +1120,6 @@
     <t>Identifies why a care plan activity is needed.  Can include any health condition codes as well as such concepts as "general wellness", prophylaxis, surgical preparation, etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
-  </si>
-  <si>
     <t>CarePlan.activity.detail.reasonReference</t>
   </si>
   <si>
@@ -1190,6 +1189,12 @@
   </si>
   <si>
     <t>Will generally not be present if status is "complete".  Be sure to prompt to update this (or at least remove the existing value) if the status is changed.</t>
+  </si>
+  <si>
+    <t>Codes that describe the reason why the activity isn't yet started, is on hold, was cancelled, etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-activity-status-reason</t>
   </si>
   <si>
     <t>Request.statusReason</t>
@@ -1554,45 +1559,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.75390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="126.48046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="123.06640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="153.9765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.01953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="41.296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="152.92578125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.66796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="40.75390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="52.9296875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="165.94921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="139.48046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="52.40234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="168.91796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="143.734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3743,13 +3748,13 @@
         <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3829,7 +3834,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3852,17 +3857,17 @@
         <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>43</v>
@@ -3911,7 +3916,7 @@
         <v>43</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3932,7 +3937,7 @@
         <v>43</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>43</v>
@@ -3940,11 +3945,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3963,13 +3968,13 @@
         <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4020,7 +4025,7 @@
         <v>43</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>50</v>
@@ -4035,21 +4040,21 @@
         <v>43</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>190</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4072,16 +4077,16 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4131,7 +4136,7 @@
         <v>43</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -4146,25 +4151,25 @@
         <v>43</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>199</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4183,19 +4188,19 @@
         <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>43</v>
@@ -4244,7 +4249,7 @@
         <v>43</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4259,25 +4264,25 @@
         <v>43</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4296,13 +4301,13 @@
         <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4353,7 +4358,7 @@
         <v>43</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4368,13 +4373,13 @@
         <v>43</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>43</v>
@@ -4382,7 +4387,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4405,16 +4410,16 @@
         <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4464,7 +4469,7 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4479,13 +4484,13 @@
         <v>43</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>43</v>
@@ -4493,7 +4498,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4516,16 +4521,16 @@
         <v>43</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4575,7 +4580,7 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4604,7 +4609,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4627,17 +4632,17 @@
         <v>43</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>43</v>
@@ -4686,7 +4691,7 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4701,13 +4706,13 @@
         <v>43</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>43</v>
@@ -4715,7 +4720,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4741,16 +4746,16 @@
         <v>164</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>43</v>
@@ -4775,13 +4780,13 @@
         <v>43</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>43</v>
+        <v>241</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>43</v>
+        <v>242</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>43</v>
@@ -4799,7 +4804,7 @@
         <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4814,21 +4819,21 @@
         <v>43</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4851,19 +4856,19 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>239</v>
-      </c>
       <c r="M30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>43</v>
@@ -4912,7 +4917,7 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4927,21 +4932,21 @@
         <v>43</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4964,19 +4969,19 @@
         <v>43</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>43</v>
@@ -5025,7 +5030,7 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -5040,7 +5045,7 @@
         <v>43</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>43</v>
@@ -5054,7 +5059,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5077,19 +5082,19 @@
         <v>43</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>43</v>
@@ -5138,7 +5143,7 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5156,18 +5161,18 @@
         <v>43</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5190,17 +5195,17 @@
         <v>43</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>43</v>
@@ -5249,7 +5254,7 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5261,13 +5266,13 @@
         <v>43</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>43</v>
@@ -5278,7 +5283,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5301,13 +5306,13 @@
         <v>43</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5358,7 +5363,7 @@
         <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5376,7 +5381,7 @@
         <v>43</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>43</v>
@@ -5387,7 +5392,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5416,7 +5421,7 @@
         <v>96</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>98</v>
@@ -5469,7 +5474,7 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5487,7 +5492,7 @@
         <v>43</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>43</v>
@@ -5498,11 +5503,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5524,10 +5529,10 @@
         <v>95</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>98</v>
@@ -5582,7 +5587,7 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5611,7 +5616,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5637,13 +5642,13 @@
         <v>164</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5672,10 +5677,10 @@
         <v>169</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>43</v>
@@ -5693,7 +5698,7 @@
         <v>43</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5722,7 +5727,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5745,19 +5750,19 @@
         <v>43</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>43</v>
@@ -5806,7 +5811,7 @@
         <v>43</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5821,10 +5826,10 @@
         <v>43</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>43</v>
@@ -5835,7 +5840,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5858,19 +5863,19 @@
         <v>43</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>43</v>
@@ -5919,7 +5924,7 @@
         <v>43</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5937,18 +5942,18 @@
         <v>43</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5971,19 +5976,19 @@
         <v>43</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>43</v>
@@ -6032,7 +6037,7 @@
         <v>43</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -6041,16 +6046,16 @@
         <v>50</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>43</v>
@@ -6061,7 +6066,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6084,17 +6089,17 @@
         <v>43</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>43</v>
@@ -6143,7 +6148,7 @@
         <v>43</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6152,16 +6157,16 @@
         <v>50</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>43</v>
@@ -6172,7 +6177,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6195,13 +6200,13 @@
         <v>43</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6252,7 +6257,7 @@
         <v>43</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6270,7 +6275,7 @@
         <v>43</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>43</v>
@@ -6281,7 +6286,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6310,7 +6315,7 @@
         <v>96</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>98</v>
@@ -6363,7 +6368,7 @@
         <v>43</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6381,7 +6386,7 @@
         <v>43</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>43</v>
@@ -6392,11 +6397,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6418,10 +6423,10 @@
         <v>95</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>98</v>
@@ -6476,7 +6481,7 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6505,7 +6510,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6531,14 +6536,14 @@
         <v>69</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>43</v>
@@ -6566,10 +6571,10 @@
         <v>149</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>43</v>
@@ -6587,7 +6592,7 @@
         <v>43</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6605,7 +6610,7 @@
         <v>43</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>43</v>
@@ -6616,7 +6621,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6639,17 +6644,17 @@
         <v>43</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>117</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>43</v>
@@ -6698,7 +6703,7 @@
         <v>43</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6727,7 +6732,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6756,13 +6761,13 @@
         <v>122</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>124</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>43</v>
@@ -6811,7 +6816,7 @@
         <v>43</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6840,7 +6845,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6866,16 +6871,16 @@
         <v>164</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>43</v>
@@ -6903,10 +6908,10 @@
         <v>169</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>43</v>
@@ -6924,7 +6929,7 @@
         <v>43</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6939,21 +6944,21 @@
         <v>43</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6979,13 +6984,13 @@
         <v>164</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7014,10 +7019,10 @@
         <v>169</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>353</v>
+        <v>242</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>43</v>
@@ -7035,7 +7040,7 @@
         <v>43</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -7050,7 +7055,7 @@
         <v>43</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>43</v>
@@ -7161,7 +7166,7 @@
         <v>43</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>43</v>
@@ -7198,7 +7203,7 @@
         <v>43</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>360</v>
@@ -7275,7 +7280,7 @@
         <v>43</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>43</v>
@@ -7457,13 +7462,13 @@
         <v>43</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>43</v>
+        <v>377</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>43</v>
+        <v>378</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>43</v>
@@ -7496,7 +7501,7 @@
         <v>43</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>43</v>
@@ -7510,7 +7515,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7533,70 +7538,70 @@
         <v>43</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Q54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE54" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P54" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="Q54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7611,10 +7616,10 @@
         <v>43</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>43</v>
@@ -7625,7 +7630,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7648,17 +7653,17 @@
         <v>43</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>43</v>
@@ -7707,7 +7712,7 @@
         <v>43</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7722,21 +7727,21 @@
         <v>43</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AK55" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="AL55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7759,19 +7764,19 @@
         <v>43</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>43</v>
@@ -7820,7 +7825,7 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7838,22 +7843,22 @@
         <v>43</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7872,17 +7877,17 @@
         <v>43</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>43</v>
@@ -7931,7 +7936,7 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7946,13 +7951,13 @@
         <v>43</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>43</v>
@@ -7960,7 +7965,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7983,19 +7988,19 @@
         <v>43</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>43</v>
@@ -8044,7 +8049,7 @@
         <v>43</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -8059,21 +8064,21 @@
         <v>43</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8096,13 +8101,13 @@
         <v>43</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8132,10 +8137,10 @@
         <v>169</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>43</v>
@@ -8153,7 +8158,7 @@
         <v>43</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8171,22 +8176,22 @@
         <v>43</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8205,17 +8210,17 @@
         <v>43</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>43</v>
@@ -8264,7 +8269,7 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8282,18 +8287,18 @@
         <v>43</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8316,13 +8321,13 @@
         <v>43</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8373,7 +8378,7 @@
         <v>43</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8391,18 +8396,18 @@
         <v>43</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8425,13 +8430,13 @@
         <v>43</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8482,7 +8487,7 @@
         <v>43</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8500,18 +8505,18 @@
         <v>43</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8534,17 +8539,17 @@
         <v>43</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>43</v>
@@ -8593,7 +8598,7 @@
         <v>43</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8608,16 +8613,16 @@
         <v>43</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
